--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Lgi4</t>
   </si>
   <si>
     <t>Adam11</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.1948456666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.584537</v>
+      </c>
+      <c r="I2">
+        <v>0.05047628636869034</v>
+      </c>
+      <c r="J2">
+        <v>0.05047628636869034</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.070204</v>
-      </c>
-      <c r="H2">
-        <v>0.210612</v>
-      </c>
-      <c r="I2">
-        <v>0.01768138548345256</v>
-      </c>
-      <c r="J2">
-        <v>0.01768138548345256</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.168045</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="N2">
-        <v>0.504135</v>
+        <v>0.379843</v>
       </c>
       <c r="O2">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="P2">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="Q2">
-        <v>0.01179743118</v>
+        <v>0.02467025418788889</v>
       </c>
       <c r="R2">
-        <v>0.10617688062</v>
+        <v>0.222032287691</v>
       </c>
       <c r="S2">
-        <v>0.001512701483664428</v>
+        <v>0.00482119640686971</v>
       </c>
       <c r="T2">
-        <v>0.001512701483664428</v>
+        <v>0.00482119640686971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H3">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I3">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J3">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3243313333333333</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N3">
-        <v>0.9729939999999999</v>
+        <v>0.972994</v>
       </c>
       <c r="O3">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="P3">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="Q3">
-        <v>0.02276935692533333</v>
+        <v>0.06319455486422222</v>
       </c>
       <c r="R3">
-        <v>0.204924212328</v>
+        <v>0.568750993778</v>
       </c>
       <c r="S3">
-        <v>0.002919554221382341</v>
+        <v>0.01234982657757491</v>
       </c>
       <c r="T3">
-        <v>0.00291955422138234</v>
+        <v>0.01234982657757491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H4">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I4">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J4">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01482133333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="N4">
-        <v>0.044464</v>
+        <v>0.169331</v>
       </c>
       <c r="O4">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="P4">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="Q4">
-        <v>0.001040516885333333</v>
+        <v>0.01099780386077778</v>
       </c>
       <c r="R4">
-        <v>0.009364651967999999</v>
+        <v>0.098980234747</v>
       </c>
       <c r="S4">
-        <v>0.0001334181494434132</v>
+        <v>0.002149251161063005</v>
       </c>
       <c r="T4">
-        <v>0.0001334181494434132</v>
+        <v>0.002149251161063005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H5">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I5">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J5">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,90 +744,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.135989666666667</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="N5">
-        <v>3.407969</v>
+        <v>2.454659</v>
       </c>
       <c r="O5">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="P5">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="Q5">
-        <v>0.07975101855866668</v>
+        <v>0.1594265564314445</v>
       </c>
       <c r="R5">
-        <v>0.717759167028</v>
+        <v>1.434839007883</v>
       </c>
       <c r="S5">
-        <v>0.01022591123921644</v>
+        <v>0.03115601222318272</v>
       </c>
       <c r="T5">
-        <v>0.01022591123921643</v>
+        <v>0.03115601222318272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H6">
+        <v>5.250698</v>
+      </c>
+      <c r="I6">
+        <v>0.4534113937757741</v>
+      </c>
+      <c r="J6">
+        <v>0.4534113937757741</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.070204</v>
-      </c>
-      <c r="H6">
-        <v>0.210612</v>
-      </c>
-      <c r="I6">
-        <v>0.01768138548345256</v>
-      </c>
-      <c r="J6">
-        <v>0.01768138548345256</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>0.321026</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="N6">
-        <v>0.9630780000000001</v>
+        <v>0.379843</v>
       </c>
       <c r="O6">
-        <v>0.163437440603872</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="P6">
-        <v>0.163437440603872</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="Q6">
-        <v>0.022537309304</v>
+        <v>0.2216045422682222</v>
       </c>
       <c r="R6">
-        <v>0.202835783736</v>
+        <v>1.994440880414</v>
       </c>
       <c r="S6">
-        <v>0.002889800389745942</v>
+        <v>0.04330717530482753</v>
       </c>
       <c r="T6">
-        <v>0.002889800389745941</v>
+        <v>0.04330717530482753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>5.250698</v>
       </c>
       <c r="I7">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J7">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.168045</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N7">
-        <v>0.504135</v>
+        <v>0.972994</v>
       </c>
       <c r="O7">
-        <v>0.08555333432892558</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="P7">
-        <v>0.08555333432892558</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="Q7">
-        <v>0.29411784847</v>
+        <v>0.5676552944235556</v>
       </c>
       <c r="R7">
-        <v>2.64706063623</v>
+        <v>5.108897649812</v>
       </c>
       <c r="S7">
-        <v>0.03771265955821057</v>
+        <v>0.110934311619657</v>
       </c>
       <c r="T7">
-        <v>0.03771265955821057</v>
+        <v>0.110934311619657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>5.250698</v>
       </c>
       <c r="I8">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J8">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3243313333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="N8">
-        <v>0.9729939999999999</v>
+        <v>0.169331</v>
       </c>
       <c r="O8">
-        <v>0.1651202177631757</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="P8">
-        <v>0.1651202177631757</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="Q8">
-        <v>0.5676552944235554</v>
+        <v>0.09878954922644444</v>
       </c>
       <c r="R8">
-        <v>5.108897649812</v>
+        <v>0.8891059430380001</v>
       </c>
       <c r="S8">
-        <v>0.07278643909703061</v>
+        <v>0.0193059956390976</v>
       </c>
       <c r="T8">
-        <v>0.07278643909703061</v>
+        <v>0.0193059956390976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,164 +980,164 @@
         <v>5.250698</v>
       </c>
       <c r="I9">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J9">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01482133333333333</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="N9">
-        <v>0.044464</v>
+        <v>2.454659</v>
       </c>
       <c r="O9">
-        <v>0.007545684107632572</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="P9">
-        <v>0.007545684107632572</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="Q9">
-        <v>0.02594078176355555</v>
+        <v>1.432074789109111</v>
       </c>
       <c r="R9">
-        <v>0.233467035872</v>
+        <v>12.888673101982</v>
       </c>
       <c r="S9">
-        <v>0.003326203684719916</v>
+        <v>0.279863911212192</v>
       </c>
       <c r="T9">
-        <v>0.003326203684719916</v>
+        <v>0.279863911212192</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.750232666666667</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H10">
-        <v>5.250698</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I10">
-        <v>0.4408087639602367</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J10">
-        <v>0.4408087639602367</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.135989666666667</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="N10">
-        <v>3.407969</v>
+        <v>0.379843</v>
       </c>
       <c r="O10">
-        <v>0.5783433231963941</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="P10">
-        <v>0.5783433231963941</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="Q10">
-        <v>1.988246223595778</v>
+        <v>0.02416822835622223</v>
       </c>
       <c r="R10">
-        <v>17.894216012362</v>
+        <v>0.217514055206</v>
       </c>
       <c r="S10">
-        <v>0.2549388054428582</v>
+        <v>0.004723087764885173</v>
       </c>
       <c r="T10">
-        <v>0.2549388054428582</v>
+        <v>0.004723087764885173</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.750232666666667</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H11">
-        <v>5.250698</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I11">
-        <v>0.4408087639602367</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J11">
-        <v>0.4408087639602367</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.321026</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N11">
-        <v>0.9630780000000001</v>
+        <v>0.972994</v>
       </c>
       <c r="O11">
-        <v>0.163437440603872</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="P11">
-        <v>0.163437440603872</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="Q11">
-        <v>0.5618701920493333</v>
+        <v>0.06190858112755557</v>
       </c>
       <c r="R11">
-        <v>5.056831728444</v>
+        <v>0.5571772301480001</v>
       </c>
       <c r="S11">
-        <v>0.07204465617741741</v>
+        <v>0.01209851453549673</v>
       </c>
       <c r="T11">
-        <v>0.07204465617741741</v>
+        <v>0.01209851453549673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.979207333333334</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H12">
-        <v>5.937622000000001</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I12">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J12">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.168045</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="N12">
-        <v>0.504135</v>
+        <v>0.169331</v>
       </c>
       <c r="O12">
-        <v>0.08555333432892558</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="P12">
-        <v>0.08555333432892558</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="Q12">
-        <v>0.3325958963300001</v>
+        <v>0.01077400472244445</v>
       </c>
       <c r="R12">
-        <v>2.993363066970001</v>
+        <v>0.09696604250200003</v>
       </c>
       <c r="S12">
-        <v>0.04264642854556507</v>
+        <v>0.00210551510575625</v>
       </c>
       <c r="T12">
-        <v>0.04264642854556507</v>
+        <v>0.00210551510575625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.979207333333334</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H13">
-        <v>5.937622000000001</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I13">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J13">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,42 +1240,42 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3243313333333333</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="N13">
-        <v>0.9729939999999999</v>
+        <v>2.454659</v>
       </c>
       <c r="O13">
-        <v>0.1651202177631757</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="P13">
-        <v>0.1651202177631757</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="Q13">
-        <v>0.6419189533631112</v>
+        <v>0.1561823154531111</v>
       </c>
       <c r="R13">
-        <v>5.777270580268</v>
+        <v>1.405640839078</v>
       </c>
       <c r="S13">
-        <v>0.08230874487243205</v>
+        <v>0.03052200485428263</v>
       </c>
       <c r="T13">
-        <v>0.08230874487243205</v>
+        <v>0.03052200485428262</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.979207333333334</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H14">
-        <v>5.937622000000001</v>
+        <v>4.943645</v>
       </c>
       <c r="I14">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J14">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,42 +1302,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01482133333333333</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="N14">
-        <v>0.044464</v>
+        <v>0.379843</v>
       </c>
       <c r="O14">
-        <v>0.007545684107632572</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="P14">
-        <v>0.007545684107632572</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="Q14">
-        <v>0.02933449162311112</v>
+        <v>0.2086454386372222</v>
       </c>
       <c r="R14">
-        <v>0.264010424608</v>
+        <v>1.877808947735</v>
       </c>
       <c r="S14">
-        <v>0.003761355190276424</v>
+        <v>0.04077463618357676</v>
       </c>
       <c r="T14">
-        <v>0.003761355190276424</v>
+        <v>0.04077463618357676</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.979207333333334</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H15">
-        <v>5.937622000000001</v>
+        <v>4.943645</v>
       </c>
       <c r="I15">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J15">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,43 +1364,43 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.135989666666667</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N15">
-        <v>3.407969</v>
+        <v>0.972994</v>
       </c>
       <c r="O15">
-        <v>0.5783433231963941</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="P15">
-        <v>0.5783433231963941</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="Q15">
-        <v>2.248359078857556</v>
+        <v>0.5344596581255556</v>
       </c>
       <c r="R15">
-        <v>20.235231709718</v>
+        <v>4.81013692313</v>
       </c>
       <c r="S15">
-        <v>0.28829124429766</v>
+        <v>0.1044470382731894</v>
       </c>
       <c r="T15">
-        <v>0.28829124429766</v>
+        <v>0.1044470382731894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.979207333333334</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H16">
-        <v>5.937622000000001</v>
+        <v>4.943645</v>
       </c>
       <c r="I16">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J16">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.321026</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="N16">
-        <v>0.9630780000000001</v>
+        <v>0.169331</v>
       </c>
       <c r="O16">
-        <v>0.163437440603872</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="P16">
-        <v>0.163437440603872</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="Q16">
-        <v>0.6353770133906669</v>
+        <v>0.09301248349944445</v>
       </c>
       <c r="R16">
-        <v>5.718393120516001</v>
+        <v>0.8371123514950001</v>
       </c>
       <c r="S16">
-        <v>0.08146991799975348</v>
+        <v>0.01817700976351081</v>
       </c>
       <c r="T16">
-        <v>0.08146991799975348</v>
+        <v>0.01817700976351081</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1708593333333333</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H17">
-        <v>0.512578</v>
+        <v>4.943645</v>
       </c>
       <c r="I17">
-        <v>0.04303215965062364</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J17">
-        <v>0.04303215965062363</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,276 +1488,276 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.168045</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="N17">
-        <v>0.504135</v>
+        <v>2.454659</v>
       </c>
       <c r="O17">
-        <v>0.08555333432892558</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="P17">
-        <v>0.08555333432892558</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="Q17">
-        <v>0.02871205667</v>
+        <v>1.348329188006111</v>
       </c>
       <c r="R17">
-        <v>0.25840851003</v>
+        <v>12.134962692055</v>
       </c>
       <c r="S17">
-        <v>0.003681544741485506</v>
+        <v>0.2634978864418782</v>
       </c>
       <c r="T17">
-        <v>0.003681544741485505</v>
+        <v>0.2634978864418782</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1708593333333333</v>
+        <v>0.07630199999999999</v>
       </c>
       <c r="H18">
-        <v>0.512578</v>
+        <v>0.228906</v>
       </c>
       <c r="I18">
-        <v>0.04303215965062364</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="J18">
-        <v>0.04303215965062363</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.3243313333333333</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="N18">
-        <v>0.9729939999999999</v>
+        <v>0.379843</v>
       </c>
       <c r="O18">
-        <v>0.1651202177631757</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="P18">
-        <v>0.1651202177631757</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="Q18">
-        <v>0.05541503539244444</v>
+        <v>0.009660926861999999</v>
       </c>
       <c r="R18">
-        <v>0.4987353185319999</v>
+        <v>0.08694834175799999</v>
       </c>
       <c r="S18">
-        <v>0.007105479572330719</v>
+        <v>0.001887991324263336</v>
       </c>
       <c r="T18">
-        <v>0.007105479572330718</v>
+        <v>0.001887991324263336</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1708593333333333</v>
+        <v>0.07630199999999999</v>
       </c>
       <c r="H19">
-        <v>0.512578</v>
+        <v>0.228906</v>
       </c>
       <c r="I19">
-        <v>0.04303215965062364</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="J19">
-        <v>0.04303215965062363</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.01482133333333333</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N19">
-        <v>0.044464</v>
+        <v>0.972994</v>
       </c>
       <c r="O19">
-        <v>0.007545684107632572</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="P19">
-        <v>0.007545684107632572</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="Q19">
-        <v>0.002532363132444444</v>
+        <v>0.024747129396</v>
       </c>
       <c r="R19">
-        <v>0.022791268192</v>
+        <v>0.222724164564</v>
       </c>
       <c r="S19">
-        <v>0.0003247070831928184</v>
+        <v>0.004836219781752673</v>
       </c>
       <c r="T19">
-        <v>0.0003247070831928183</v>
+        <v>0.004836219781752673</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.07630199999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.228906</v>
+      </c>
+      <c r="I20">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="J20">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="F20">
+      <c r="L20">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G20">
-        <v>0.1708593333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.512578</v>
-      </c>
-      <c r="I20">
-        <v>0.04303215965062364</v>
-      </c>
-      <c r="J20">
-        <v>0.04303215965062363</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
       <c r="M20">
-        <v>1.135989666666667</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="N20">
-        <v>3.407969</v>
+        <v>0.169331</v>
       </c>
       <c r="O20">
-        <v>0.5783433231963941</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="P20">
-        <v>0.5783433231963941</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="Q20">
-        <v>0.1940944371202222</v>
+        <v>0.004306764654</v>
       </c>
       <c r="R20">
-        <v>1.746849934082</v>
+        <v>0.038760881886</v>
       </c>
       <c r="S20">
-        <v>0.02488736221665946</v>
+        <v>0.0008416515742789389</v>
       </c>
       <c r="T20">
-        <v>0.02488736221665945</v>
+        <v>0.0008416515742789389</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1708593333333333</v>
+        <v>0.07630199999999999</v>
       </c>
       <c r="H21">
-        <v>0.512578</v>
+        <v>0.228906</v>
       </c>
       <c r="I21">
-        <v>0.04303215965062364</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="J21">
-        <v>0.04303215965062363</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.321026</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="N21">
-        <v>0.9630780000000001</v>
+        <v>2.454659</v>
       </c>
       <c r="O21">
-        <v>0.163437440603872</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="P21">
-        <v>0.163437440603872</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="Q21">
-        <v>0.05485028834266667</v>
+        <v>0.062431797006</v>
       </c>
       <c r="R21">
-        <v>0.4936525950840001</v>
+        <v>0.561886173054</v>
       </c>
       <c r="S21">
-        <v>0.007033066036955137</v>
+        <v>0.0122007642526647</v>
       </c>
       <c r="T21">
-        <v>0.007033066036955136</v>
+        <v>0.0122007642526647</v>
       </c>
     </row>
   </sheetData>
